--- a/V7/UUID資料.xlsx
+++ b/V7/UUID資料.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41117\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arduino\universityclass\工程設計\V7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5375BC5B-6319-4346-99B8-89B85A01C08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE810E-F38F-40A6-A545-DDEDA81DFD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A105FCEA-CA5E-40C4-B986-312C828397C0}"/>
   </bookViews>
@@ -34,45 +34,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>16:33:24.720 -&gt; New card [38/50]: FF0F1FE4180100</t>
-  </si>
-  <si>
-    <t>16:33:25.314 -&gt; New card [39/50]: FF0F20E4180100</t>
-  </si>
-  <si>
-    <t>16:33:26.170 -&gt; New card [40/50]: FF0F21E4180100</t>
-  </si>
-  <si>
-    <t>16:33:26.812 -&gt; New card [41/50]: FF0F22E4180100</t>
-  </si>
-  <si>
-    <t>16:33:27.345 -&gt; New card [42/50]: FF0F23E4180100</t>
-  </si>
-  <si>
-    <t>16:33:27.834 -&gt; New card [43/50]: FF0FB0E2180100</t>
-  </si>
-  <si>
-    <t>16:33:28.394 -&gt; New card [44/50]: FF0FB1E2180100</t>
-  </si>
-  <si>
-    <t>16:33:28.941 -&gt; New card [45/50]: FF0FB2E2180100</t>
-  </si>
-  <si>
-    <t>16:33:29.811 -&gt; New card [46/50]: FF0F6CE2180100</t>
-  </si>
-  <si>
-    <t>16:33:31.131 -&gt; New card [47/50]: FF0F6DE2180100</t>
-  </si>
-  <si>
-    <t>16:33:31.957 -&gt; New card [48/50]: FF0F6DDC180100</t>
-  </si>
-  <si>
-    <t>16:33:33.069 -&gt; New card [49/50]: FF0F6EDC180100</t>
-  </si>
-  <si>
-    <t>16:33:43.649 -&gt; New card [50/50]: FF0F6BE2180100</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>17:01:49.297 -&gt; Card #1: UID = FF0F2B6E130100</t>
+  </si>
+  <si>
+    <t>17:01:49.896 -&gt; Card #2: UID = FF0F2A6E130100</t>
+  </si>
+  <si>
+    <t>17:01:50.767 -&gt; Card #3: UID = FF0F9A6F130100</t>
+  </si>
+  <si>
+    <t>17:01:51.698 -&gt; Card #4: UID = FF0F996F130100</t>
+  </si>
+  <si>
+    <t>17:01:52.338 -&gt; Card #5: UID = FF0F986F130100</t>
+  </si>
+  <si>
+    <t>17:01:52.923 -&gt; Card #6: UID = FF0F976F130100</t>
+  </si>
+  <si>
+    <t>17:01:53.439 -&gt; Card #7: UID = FF0F966F130100</t>
+  </si>
+  <si>
+    <t>17:01:53.990 -&gt; Card #8: UID = FF0F956F130100</t>
+  </si>
+  <si>
+    <t>17:01:54.834 -&gt; Card #9: UID = FF0F946F130100</t>
+  </si>
+  <si>
+    <t>17:01:55.485 -&gt; Card #10: UID = FF0F936F130100</t>
+  </si>
+  <si>
+    <t>17:02:00.331 -&gt; Card #11: UID = FF0FCDA0120100</t>
+  </si>
+  <si>
+    <t>17:02:01.269 -&gt; Card #12: UID = FF0F86D9180100</t>
+  </si>
+  <si>
+    <t>17:02:01.625 -&gt; Card #13: UID = FF0F85D9180100</t>
+  </si>
+  <si>
+    <t>17:02:02.065 -&gt; Card #14: UID = FF0F84D9180100</t>
+  </si>
+  <si>
+    <t>17:02:02.887 -&gt; Card #15: UID = FF0F83D9180100</t>
+  </si>
+  <si>
+    <t>17:02:03.296 -&gt; Card #16: UID = FF0F82D9180100</t>
+  </si>
+  <si>
+    <t>17:02:03.809 -&gt; Card #17: UID = FF0F56E6180100</t>
+  </si>
+  <si>
+    <t>17:02:04.453 -&gt; Card #18: UID = FF0F57E6180100</t>
+  </si>
+  <si>
+    <t>17:02:05.033 -&gt; Card #19: UID = FF0F75E5180100</t>
+  </si>
+  <si>
+    <t>17:02:05.614 -&gt; Card #20: UID = FF0F76E5180100</t>
+  </si>
+  <si>
+    <t>17:02:06.227 -&gt; Card #21: UID = FF0F77E5180100</t>
+  </si>
+  <si>
+    <t>17:02:06.689 -&gt; Card #22: UID = FF0F78E5180100</t>
+  </si>
+  <si>
+    <t>17:02:07.271 -&gt; Card #23: UID = FF0F79E5180100</t>
+  </si>
+  <si>
+    <t>17:02:07.875 -&gt; Card #24: UID = FF0F7AE5180100</t>
+  </si>
+  <si>
+    <t>17:02:08.469 -&gt; Card #25: UID = FF0F7BE5180100</t>
+  </si>
+  <si>
+    <t>17:02:09.016 -&gt; Card #26: UID = FF0F7CE5180100</t>
+  </si>
+  <si>
+    <t>17:02:09.437 -&gt; Card #27: UID = FF0F7DE5180100</t>
+  </si>
+  <si>
+    <t>17:02:10.177 -&gt; Card #28: UID = FF0F7EE5180100</t>
+  </si>
+  <si>
+    <t>17:02:11.286 -&gt; Card #29: UID = FF0F7FE5180100</t>
+  </si>
+  <si>
+    <t>17:02:11.760 -&gt; Card #30: UID = FF0F80E5180100</t>
+  </si>
+  <si>
+    <t>17:02:12.208 -&gt; Card #31: UID = FF0F18E4180100</t>
+  </si>
+  <si>
+    <t>17:02:12.937 -&gt; Card #32: UID = FF0F19E4180100</t>
+  </si>
+  <si>
+    <t>17:02:14.161 -&gt; Card #33: UID = FF0F1AE4180100</t>
+  </si>
+  <si>
+    <t>17:02:15.051 -&gt; Card #34: UID = FF0F1BE4180100</t>
+  </si>
+  <si>
+    <t>17:02:15.536 -&gt; Card #35: UID = FF0F1CE4180100</t>
+  </si>
+  <si>
+    <t>17:02:15.984 -&gt; Card #36: UID = FF0F1DE4180100</t>
+  </si>
+  <si>
+    <t>17:02:16.402 -&gt; Card #37: UID = FF0F1EE4180100</t>
+  </si>
+  <si>
+    <t>17:02:17.327 -&gt; Card #38: UID = FF0F1FE4180100</t>
+  </si>
+  <si>
+    <t>17:02:18.364 -&gt; Card #39: UID = FF0F20E4180100</t>
+  </si>
+  <si>
+    <t>17:02:19.417 -&gt; Card #40: UID = FF0F21E4180100</t>
+  </si>
+  <si>
+    <t>17:02:19.816 -&gt; Card #41: UID = FF0F22E4180100</t>
+  </si>
+  <si>
+    <t>17:02:20.318 -&gt; Card #42: UID = FF0F23E4180100</t>
+  </si>
+  <si>
+    <t>17:02:21.273 -&gt; Card #43: UID = FF0FB0E2180100</t>
+  </si>
+  <si>
+    <t>17:02:22.064 -&gt; Card #44: UID = FF0FB1E2180100</t>
+  </si>
+  <si>
+    <t>17:02:22.885 -&gt; Card #45: UID = FF0FB2E2180100</t>
+  </si>
+  <si>
+    <t>17:02:23.584 -&gt; Card #46: UID = FF0F6BE2180100</t>
+  </si>
+  <si>
+    <t>17:02:24.498 -&gt; Card #47: UID = FF0F6CE2180100</t>
+  </si>
+  <si>
+    <t>17:02:25.084 -&gt; Card #48: UID = FF0F6DE2180100</t>
+  </si>
+  <si>
+    <t>17:02:25.631 -&gt; Card #49: UID = FF0F6DDC180100</t>
+  </si>
+  <si>
+    <t>17:02:26.138 -&gt; Card #50: UID = FF0F6EDC180100</t>
   </si>
 </sst>
 </file>
@@ -454,9 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D7575-AD3C-4D24-B76D-A0731AE16C61}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -528,6 +641,191 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
